--- a/InputData/land/CApULAbIFM/CO2 Abated per Unit Land Area by Impr For Mgmt.xlsx
+++ b/InputData/land/CApULAbIFM/CO2 Abated per Unit Land Area by Impr For Mgmt.xlsx
@@ -1,34 +1,40 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox (Energy Innovation)\EI-PlcyMdl\eps-1.4.1-india\InputData\land\CApULAbIFM\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\deept\Dropbox\EPS\Input Data for India 2.0\land\CApULAbIFM\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1FD453C-C493-4734-BC10-DC4B82D5AA15}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="315" yWindow="315" windowWidth="18825" windowHeight="6555"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
     <sheet name="Calculations" sheetId="4" r:id="rId2"/>
     <sheet name="CApULAbIFM" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
   <si>
     <t>CApULAbIFM CO2 Abated per Unit Land Area by Improved Forest Management</t>
   </si>
   <si>
-    <t>Source:</t>
-  </si>
-  <si>
     <t>CO2 Abated (g)</t>
   </si>
   <si>
@@ -89,9 +95,6 @@
     <t>Conservation and Enhancement of Forest Carbon Stocks</t>
   </si>
   <si>
-    <t>http://www.teriuniversity.ac.in/mct/pdf/assignment/TP-Singh.pdf</t>
-  </si>
-  <si>
     <t xml:space="preserve">Notes: </t>
   </si>
   <si>
@@ -102,16 +105,71 @@
   </si>
   <si>
     <t>We take a weighted average of the forest types.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The India-specific source available is from 2012, where the change in carbon stock  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">While more recent data on change in carbon stock and forest area is available in </t>
+  </si>
+  <si>
+    <t>https://redd.unfccc.int/files/modified_submission_of_frl_02_november_2018.pdf</t>
+  </si>
+  <si>
+    <t>Another official source on India's Submission (modified) on Forest Reference Levels for REDD+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">However, this only states the baseline stocks and not incremental stocks from improved  </t>
+  </si>
+  <si>
+    <t>forest management practices (Source 3)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GHGPI's database (for 2015) (Source 2), it is not diversifed in terms of forest </t>
+  </si>
+  <si>
+    <t>management activities. Hence, we use the 2012 estimates from the ICFRE study</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dhingra, S., Singh, D., and Mehta, R. </t>
+  </si>
+  <si>
+    <t>GHGPI Platform India - Vasudha Foundation</t>
+  </si>
+  <si>
+    <t>http://www.ghgplatform-india.org/afolu-sector</t>
+  </si>
+  <si>
+    <t>GHGPI Phase III Emissions Estimates AFOLU sector (2005 - 2015)</t>
+  </si>
+  <si>
+    <t>Sheets: Forest Area, Forest Change Matrix</t>
+  </si>
+  <si>
+    <t>and change in area is estimated across management practices (Source 1)</t>
+  </si>
+  <si>
+    <t>Source 1:</t>
+  </si>
+  <si>
+    <t>India’s proposed Modified Submission on Forest Reference Levels for REDD+ 
+Result based Payments under UNFCCC</t>
+  </si>
+  <si>
+    <t>MoEF</t>
+  </si>
+  <si>
+    <t>http://web.archive.org/web/20170918224752/http://www.teriuniversity.ac.in/mct/pdf/assignment/TP-Singh.pdf</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -123,6 +181,14 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -151,10 +217,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -168,8 +235,15 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -261,6 +335,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -296,6 +387,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -471,24 +579,29 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:K27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J15" sqref="J15"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="11" max="11" width="73.42578125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>1</v>
+        <v>39</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C3" s="8"/>
       <c r="D3" s="8"/>
@@ -496,63 +609,161 @@
       <c r="F3" s="8"/>
       <c r="G3" s="8"/>
       <c r="H3" s="8"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J3" s="11">
+        <v>2</v>
+      </c>
+      <c r="K3" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
       <c r="B4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+      <c r="K4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="B5" s="4">
         <v>2012</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K5" s="4">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
       <c r="B6" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B7" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+      <c r="K6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B7" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="K7" s="9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
       <c r="B8" t="s">
+        <v>20</v>
+      </c>
+      <c r="K8" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="J11" s="11">
+        <v>3</v>
+      </c>
+      <c r="K11" s="12" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K12" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K13" s="4">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K14" s="9" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K15" s="9"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" s="10" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" s="10" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" s="10"/>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" s="10" t="s">
         <v>26</v>
       </c>
     </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" s="10" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" s="10" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" s="10" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" s="10"/>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" s="10" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" s="10" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27" s="10" t="s">
+        <v>30</v>
+      </c>
+    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="K7" r:id="rId1" xr:uid="{8A9735FE-1BEE-4470-9D8C-6D01625B79BA}"/>
+    <hyperlink ref="K14" r:id="rId2" xr:uid="{F72DA327-12DB-461E-A6E3-29AA55656005}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="30.42578125" customWidth="1"/>
+    <col min="1" max="1" width="35" customWidth="1"/>
+    <col min="2" max="2" width="30.42578125" customWidth="1"/>
     <col min="3" max="3" width="19" customWidth="1"/>
     <col min="4" max="4" width="38.5703125" customWidth="1"/>
     <col min="5" max="5" width="49.28515625" customWidth="1"/>
@@ -561,7 +772,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B1" s="7"/>
       <c r="C1" s="8"/>
@@ -570,24 +781,24 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" t="s">
         <v>16</v>
-      </c>
-      <c r="D2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E2" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B3" s="5">
         <v>2000000</v>
@@ -606,7 +817,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B4" s="5">
         <v>4000000</v>
@@ -625,7 +836,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B5" s="5">
         <v>1200000</v>
@@ -644,7 +855,7 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B6" s="5">
         <v>100000</v>
@@ -663,7 +874,7 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B7" s="5">
         <v>200000</v>
@@ -682,7 +893,7 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B8" s="5">
         <v>1500000</v>
@@ -704,7 +915,7 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D10" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E10" s="6">
         <f>SUMPRODUCT(E3:E8,D3:D8)/SUM(D3:D8)</f>
@@ -713,7 +924,7 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
@@ -722,11 +933,12 @@
         <v>2056007.2063674619</v>
       </c>
       <c r="B13" t="s">
+        <v>4</v>
+      </c>
+      <c r="C13" t="s">
         <v>5</v>
       </c>
-      <c r="C13" t="s">
-        <v>6</v>
-      </c>
+      <c r="E13" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -734,7 +946,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
@@ -751,12 +963,12 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B1" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B2" s="3">
         <f>Calculations!A13</f>
